--- a/note/encoder_uncertainty.xlsx
+++ b/note/encoder_uncertainty.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,22 +19,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Resolution (bits)</t>
   </si>
   <si>
     <t>Distance dy (ft)</t>
   </si>
+  <si>
+    <t>Vertical Height(ft)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance dy (ft)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and angle equivalent from horizon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance dy (ft)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and angle equivalent from horizon</t>
+    </r>
+  </si>
+  <si>
+    <t>Horizontal Height(ft)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00\f\t"/>
+    <numFmt numFmtId="165" formatCode="0.00\°"/>
+    <numFmt numFmtId="166" formatCode="0.00\ \f\t"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,16 +122,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF660066"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF660066"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -92,6 +202,86 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -100,60 +290,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -161,51 +309,316 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -531,176 +944,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="19">
         <v>200</v>
       </c>
-      <c r="C2" s="6">
-        <v>400</v>
-      </c>
-      <c r="D2" s="6">
-        <v>600</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C4" s="20">
+        <v>300</v>
+      </c>
+      <c r="D4" s="21">
+        <v>500</v>
+      </c>
+      <c r="E4" s="19">
         <v>800</v>
       </c>
-      <c r="F2" s="6">
-        <v>1500</v>
-      </c>
-      <c r="G2" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8">
-        <f>B2/2 * (TAN(2*PI()/(2^A3 - 1)))</f>
-        <v>2.4644930115173924</v>
-      </c>
-      <c r="C3" s="9">
-        <f>C2/2 * (TAN(2*PI()/(2^A3 - 1)))</f>
-        <v>4.9289860230347848</v>
-      </c>
-      <c r="D3" s="9">
-        <f>D2/2 * (TAN(2*PI()/(2^A3 - 1)))</f>
-        <v>7.3934790345521773</v>
-      </c>
-      <c r="E3" s="9">
-        <f>E2/2 * (TAN(2*PI()/(2^A3 - 1)))</f>
-        <v>9.8579720460695697</v>
-      </c>
-      <c r="F3" s="9">
-        <f>F2/2 * (TAN(2*PI()/(2^A3 - 1)))</f>
-        <v>18.483697586380444</v>
-      </c>
-      <c r="G3" s="9">
-        <f>G2/2 * (TAN(2*PI()/(2^A3 - 1)))</f>
-        <v>36.967395172760888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" s="10">
-        <f>B2/2 * (TAN(2*PI()/(2^A4 - 1)))</f>
-        <v>0.61419983535158851</v>
-      </c>
-      <c r="C4" s="9">
-        <f>C2/2 * (TAN(2*PI()/(2^A4 - 1)))</f>
-        <v>1.228399670703177</v>
-      </c>
-      <c r="D4" s="9">
-        <f>D2/2 * (TAN(2*PI()/(2^A4 - 1)))</f>
-        <v>1.8425995060547655</v>
-      </c>
-      <c r="E4" s="9">
-        <f>E2/2 * (TAN(2*PI()/(2^A4 - 1)))</f>
-        <v>2.456799341406354</v>
-      </c>
-      <c r="F4" s="9">
-        <f>F2/2 * (TAN(2*PI()/(2^A4 - 1)))</f>
-        <v>4.606498765136914</v>
-      </c>
-      <c r="G4" s="9">
-        <f>G2/2 * (TAN(2*PI()/(2^A4 - 1)))</f>
-        <v>9.2129975302738281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>12</v>
       </c>
-      <c r="B5" s="10">
-        <f>B2/2 * (TAN(2*PI()/(2^A5 - 1)))</f>
-        <v>0.15343565904533499</v>
-      </c>
-      <c r="C5" s="9">
-        <f>C2/2 * (TAN(2*PI()/(2^A5 - 1)))</f>
-        <v>0.30687131809066998</v>
-      </c>
-      <c r="D5" s="9">
-        <f>D2/2 * (TAN(2*PI()/(2^A5 - 1)))</f>
-        <v>0.46030697713600494</v>
-      </c>
-      <c r="E5" s="9">
-        <f>E2/2 * (TAN(2*PI()/(2^A5 - 1)))</f>
-        <v>0.61374263618133995</v>
-      </c>
-      <c r="F5" s="9">
-        <f>F2/2 * (TAN(2*PI()/(2^A5 - 1)))</f>
-        <v>1.1507674428400123</v>
-      </c>
-      <c r="G5" s="9">
-        <f>G2/2 * (TAN(2*PI()/(2^A5 - 1)))</f>
-        <v>2.3015348856800246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="B5" s="22">
+        <f>B4 * (TAN(2*PI()/(2^A5)))</f>
+        <v>0.3067963982177333</v>
+      </c>
+      <c r="C5" s="23">
+        <f>C4 * (TAN(2*PI()/(2^A5)))</f>
+        <v>0.46019459732659995</v>
+      </c>
+      <c r="D5" s="22">
+        <f>D4 * (TAN(2*PI()/(2^A5)))</f>
+        <v>0.76699099554433325</v>
+      </c>
+      <c r="E5" s="24">
+        <f>E4 * (TAN(2*PI()/(2^A5)))</f>
+        <v>1.2271855928709332</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
-        <f>B2/2 * (TAN(2*PI()/(2^A6 - 1)))</f>
-        <v>3.835186238928702E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <f>C2/2 * (TAN(2*PI()/(2^A6 - 1)))</f>
-        <v>7.6703724778574039E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <f>D2/2 * (TAN(2*PI()/(2^A6 - 1)))</f>
-        <v>0.11505558716786106</v>
-      </c>
-      <c r="E6" s="9">
-        <f>E2/2 * (TAN(2*PI()/(2^A6 - 1)))</f>
-        <v>0.15340744955714808</v>
-      </c>
-      <c r="F6" s="9">
-        <f>F2/2 * (TAN(2*PI()/(2^A6 - 1)))</f>
-        <v>0.28763896791965265</v>
-      </c>
-      <c r="G6" s="9">
-        <f>G2/2 * (TAN(2*PI()/(2^A6 - 1)))</f>
-        <v>0.57527793583930531</v>
+      <c r="B6" s="25">
+        <f>B4 * (TAN(2*PI()/(2^A6)))</f>
+        <v>7.6699043154288202E-2</v>
+      </c>
+      <c r="C6" s="26">
+        <f>C4 * (TAN(2*PI()/(2^A6)))</f>
+        <v>0.1150485647314323</v>
+      </c>
+      <c r="D6" s="25">
+        <f>D4 * (TAN(2*PI()/(2^A6)))</f>
+        <v>0.19174760788572051</v>
+      </c>
+      <c r="E6" s="27">
+        <f>E4 * (TAN(2*PI()/(2^A6)))</f>
+        <v>0.30679617261715281</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="15"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="19">
+        <v>200</v>
+      </c>
+      <c r="C11" s="20">
+        <v>300</v>
+      </c>
+      <c r="D11" s="19">
+        <v>500</v>
+      </c>
+      <c r="E11" s="19">
+        <v>800</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="16">
+        <f>ATAN((B11/B9))*180/PI()</f>
+        <v>85.710846671181002</v>
+      </c>
+      <c r="C12" s="17">
+        <f>ATAN((C11/B9))*180/PI()</f>
+        <v>87.137594773888253</v>
+      </c>
+      <c r="D12" s="16">
+        <f>ATAN((D11/B9))*180/PI()</f>
+        <v>88.281641998344554</v>
+      </c>
+      <c r="E12" s="16">
+        <f>ATAN((E11/B9))*180/PI()</f>
+        <v>88.925830001627375</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22">
+        <f>B9*TAN((B12+360/2^A13)*PI()/180)-B11</f>
+        <v>4.1995215790835232</v>
+      </c>
+      <c r="C13" s="23">
+        <f>B9*TAN(( C12+360/2^A13)*PI()/180)-C11</f>
+        <v>9.5189393057860343</v>
+      </c>
+      <c r="D13" s="22">
+        <f>B9*TAN((D12+360/2^A13)*PI()/180)-D11</f>
+        <v>26.968341241126723</v>
+      </c>
+      <c r="E13" s="24">
+        <f>B9*TAN((E12+360/2^A13)*PI()/180)-E11</f>
+        <v>71.306676414392882</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>14</v>
+      </c>
+      <c r="B14" s="25">
+        <f>B9*TAN((B12+360/2^A14)*PI()/180)-B11</f>
+        <v>1.0336918821794256</v>
+      </c>
+      <c r="C14" s="26">
+        <f>B9*TAN((C12+360/2^A14)*PI()/180)-C11</f>
+        <v>2.3245528205753203</v>
+      </c>
+      <c r="D14" s="25">
+        <f>B9*TAN((D12+360/2^A14)*PI()/180)-D11</f>
+        <v>6.4801765816446277</v>
+      </c>
+      <c r="E14" s="27">
+        <f>B9*TAN((E12+360/2^A14)*PI()/180)-E11</f>
+        <v>16.709985609787509</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="19">
+        <v>200</v>
+      </c>
+      <c r="C19" s="20">
+        <v>300</v>
+      </c>
+      <c r="D19" s="19">
+        <v>500</v>
+      </c>
+      <c r="E19" s="19">
+        <v>800</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="16">
+        <f>ATAN((B19/B17))*180/PI()</f>
+        <v>84.289406862500371</v>
+      </c>
+      <c r="C20" s="17">
+        <f>ATAN((C19/B17))*180/PI()</f>
+        <v>86.185925165709648</v>
+      </c>
+      <c r="D20" s="16">
+        <f>ATAN((D19/B17))*180/PI()</f>
+        <v>87.709389957361466</v>
+      </c>
+      <c r="E20" s="16">
+        <f>ATAN((E19/B17))*180/PI()</f>
+        <v>88.567903815835365</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>12</v>
+      </c>
+      <c r="B21" s="22">
+        <f>B17*TAN((B20+360/2^A21)*PI()/180)-B19</f>
+        <v>3.146916758346805</v>
+      </c>
+      <c r="C21" s="23">
+        <f>B17*TAN((C20+360/2^A21)*PI()/180)-C19</f>
+        <v>7.0968962656842223</v>
+      </c>
+      <c r="D21" s="22">
+        <f>B17*TAN((D20+360/2^A21)*PI()/180)-D19</f>
+        <v>19.971346682135049</v>
+      </c>
+      <c r="E21" s="24">
+        <f>B17*TAN((E20+360/2^A21)*PI()/180)-E19</f>
+        <v>52.328971340612497</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>14</v>
+      </c>
+      <c r="B22" s="25">
+        <f>B17*TAN((B20+360/2^A22)*PI()/180)-B19</f>
+        <v>0.77764255786379977</v>
+      </c>
+      <c r="C22" s="26">
+        <f>B17*TAN((C20+360/2^A22)*PI()/180)-C19</f>
+        <v>1.7434273158069118</v>
+      </c>
+      <c r="D22" s="25">
+        <f>B17*TAN((D20+360/2^A22)*PI()/180)-D19</f>
+        <v>4.8478381700837758</v>
+      </c>
+      <c r="E22" s="27">
+        <f>B17*TAN((E20+360/2^A22)*PI()/180)-E19</f>
+        <v>12.470816751447842</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="19">
+        <v>200</v>
+      </c>
+      <c r="C27" s="20">
+        <v>300</v>
+      </c>
+      <c r="D27" s="19">
+        <v>500</v>
+      </c>
+      <c r="E27" s="19">
+        <v>800</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="16">
+        <f>ATAN((B27/B25))*180/PI()</f>
+        <v>82.874983651098191</v>
+      </c>
+      <c r="C28" s="17">
+        <f>ATAN((C27/B25))*180/PI()</f>
+        <v>85.236358309273825</v>
+      </c>
+      <c r="D28" s="16">
+        <f>ATAN((D27/B25))*180/PI()</f>
+        <v>87.137594773888253</v>
+      </c>
+      <c r="E28" s="16">
+        <f>ATAN((E27/B25))*180/PI()</f>
+        <v>88.210089391753939</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>12</v>
+      </c>
+      <c r="B29" s="22">
+        <f>B25*TAN((B28+360/2^A29)*PI()/180)-B27</f>
+        <v>2.5236911092197261</v>
+      </c>
+      <c r="C29" s="23">
+        <f>B25*TAN((C28+360/2^A29)*PI()/180)-C27</f>
+        <v>5.6649641535980777</v>
+      </c>
+      <c r="D29" s="22">
+        <f>B25*TAN((D28+360/2^A29)*PI()/180)-D27</f>
+        <v>15.8648988429768</v>
+      </c>
+      <c r="E29" s="24">
+        <f>B25*TAN((E28+360/2^A29)*PI()/180)-E27</f>
+        <v>41.33743679698614</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>14</v>
+      </c>
+      <c r="B30" s="25">
+        <f>B25*TAN((B28+360/2^A30)*PI()/180)-B27</f>
+        <v>0.62509750083620474</v>
+      </c>
+      <c r="C30" s="26">
+        <f>B25*TAN((C28+360/2^A30)*PI()/180)-C27</f>
+        <v>1.3965972173861019</v>
+      </c>
+      <c r="D30" s="25">
+        <f>B25*TAN((D28+360/2^A30)*PI()/180)-D27</f>
+        <v>3.8742547009588861</v>
+      </c>
+      <c r="E30" s="27">
+        <f>B25*TAN((E28+360/2^A30)*PI()/180)-E27</f>
+        <v>9.9491594659422162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CMaximum Encoder Error At Various Distances (ft)</oddHeader>
   </headerFooter>
